--- a/REGULAR/OJT/LUNA, FERNANDO.xlsx
+++ b/REGULAR/OJT/LUNA, FERNANDO.xlsx
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="158">
   <si>
     <t>PERIOD</t>
   </si>
@@ -501,6 +501,21 @@
   </si>
   <si>
     <t>8/15-17/2023</t>
+  </si>
+  <si>
+    <t>10/3-5/2023</t>
+  </si>
+  <si>
+    <t>MOURNING 11/27/2023-12/05/2023</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>SL(1-0-0)</t>
+  </si>
+  <si>
+    <t>VL(7-0-0)</t>
   </si>
 </sst>
 </file>
@@ -737,7 +752,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -895,6 +910,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2916,7 +2937,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K355" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K369" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
@@ -3294,12 +3315,12 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K355"/>
+  <dimension ref="A2:K369"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <pane ySplit="1725" topLeftCell="A331" activePane="bottomLeft"/>
+      <pane ySplit="1725" topLeftCell="A340" activePane="bottomLeft"/>
       <selection activeCell="A7" sqref="A7"/>
-      <selection pane="bottomLeft" activeCell="I354" sqref="I354"/>
+      <selection pane="bottomLeft" activeCell="E363" sqref="E363"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3321,58 +3342,58 @@
       <c r="A2" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="56" t="s">
+      <c r="B2" s="58" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="56"/>
+      <c r="C2" s="58"/>
       <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
       <c r="H2" s="27" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="24"/>
-      <c r="J2" s="57"/>
-      <c r="K2" s="58"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="60"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="56"/>
-      <c r="C3" s="56"/>
+      <c r="B3" s="58"/>
+      <c r="C3" s="58"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="64"/>
-      <c r="G3" s="61"/>
+      <c r="F3" s="66"/>
+      <c r="G3" s="63"/>
       <c r="H3" s="25" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="25"/>
-      <c r="J3" s="59"/>
-      <c r="K3" s="60"/>
+      <c r="J3" s="61"/>
+      <c r="K3" s="62"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="56"/>
-      <c r="C4" s="56"/>
+      <c r="B4" s="58"/>
+      <c r="C4" s="58"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="61"/>
-      <c r="G4" s="61"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="63"/>
       <c r="H4" s="25" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="25"/>
-      <c r="J4" s="61"/>
-      <c r="K4" s="62"/>
+      <c r="J4" s="63"/>
+      <c r="K4" s="64"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -3398,18 +3419,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="55" t="s">
+      <c r="C7" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="55"/>
-      <c r="E7" s="55"/>
-      <c r="F7" s="55"/>
-      <c r="G7" s="55" t="s">
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="55"/>
-      <c r="I7" s="55"/>
-      <c r="J7" s="55"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="57"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -3456,7 +3477,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>223.476</v>
+        <v>221.476</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3466,7 +3487,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>335.75</v>
+        <v>336.75</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -10933,13 +10954,15 @@
       <c r="B354" s="20" t="s">
         <v>144</v>
       </c>
-      <c r="C354" s="13"/>
+      <c r="C354" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D354" s="38"/>
       <c r="E354" s="9"/>
       <c r="F354" s="20"/>
-      <c r="G354" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G354" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H354" s="38">
         <v>3</v>
@@ -10955,18 +10978,292 @@
         <v>45170</v>
       </c>
       <c r="B355" s="20"/>
-      <c r="C355" s="13"/>
+      <c r="C355" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D355" s="38"/>
       <c r="E355" s="9"/>
       <c r="F355" s="20"/>
-      <c r="G355" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G355" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H355" s="38"/>
       <c r="I355" s="9"/>
       <c r="J355" s="11"/>
       <c r="K355" s="20"/>
+    </row>
+    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A356" s="39">
+        <v>45200</v>
+      </c>
+      <c r="B356" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="C356" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D356" s="38"/>
+      <c r="E356" s="9"/>
+      <c r="F356" s="20"/>
+      <c r="G356" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H356" s="38">
+        <v>3</v>
+      </c>
+      <c r="I356" s="9"/>
+      <c r="J356" s="11"/>
+      <c r="K356" s="20" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A357" s="39">
+        <v>45231</v>
+      </c>
+      <c r="B357" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="C357" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D357" s="38">
+        <v>7</v>
+      </c>
+      <c r="E357" s="9"/>
+      <c r="F357" s="20"/>
+      <c r="G357" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H357" s="38"/>
+      <c r="I357" s="9"/>
+      <c r="J357" s="11"/>
+      <c r="K357" s="55" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A358" s="39"/>
+      <c r="B358" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="C358" s="13"/>
+      <c r="D358" s="38"/>
+      <c r="E358" s="9"/>
+      <c r="F358" s="20"/>
+      <c r="G358" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H358" s="38">
+        <v>1</v>
+      </c>
+      <c r="I358" s="9"/>
+      <c r="J358" s="11"/>
+      <c r="K358" s="56">
+        <v>45247</v>
+      </c>
+    </row>
+    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A359" s="39">
+        <v>45261</v>
+      </c>
+      <c r="B359" s="20"/>
+      <c r="C359" s="13"/>
+      <c r="D359" s="38"/>
+      <c r="E359" s="9"/>
+      <c r="F359" s="20"/>
+      <c r="G359" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H359" s="38"/>
+      <c r="I359" s="9"/>
+      <c r="J359" s="11"/>
+      <c r="K359" s="20"/>
+    </row>
+    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A360" s="51" t="s">
+        <v>155</v>
+      </c>
+      <c r="B360" s="20"/>
+      <c r="C360" s="13"/>
+      <c r="D360" s="38"/>
+      <c r="E360" s="9"/>
+      <c r="F360" s="20"/>
+      <c r="G360" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H360" s="38"/>
+      <c r="I360" s="9"/>
+      <c r="J360" s="11"/>
+      <c r="K360" s="20"/>
+    </row>
+    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A361" s="39">
+        <v>45292</v>
+      </c>
+      <c r="B361" s="20"/>
+      <c r="C361" s="13"/>
+      <c r="D361" s="38"/>
+      <c r="E361" s="9"/>
+      <c r="F361" s="20"/>
+      <c r="G361" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H361" s="38"/>
+      <c r="I361" s="9"/>
+      <c r="J361" s="11"/>
+      <c r="K361" s="20"/>
+    </row>
+    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A362" s="39">
+        <v>45323</v>
+      </c>
+      <c r="B362" s="20"/>
+      <c r="C362" s="13"/>
+      <c r="D362" s="38"/>
+      <c r="E362" s="9"/>
+      <c r="F362" s="20"/>
+      <c r="G362" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H362" s="38"/>
+      <c r="I362" s="9"/>
+      <c r="J362" s="11"/>
+      <c r="K362" s="20"/>
+    </row>
+    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A363" s="39">
+        <v>45352</v>
+      </c>
+      <c r="B363" s="20"/>
+      <c r="C363" s="13"/>
+      <c r="D363" s="38"/>
+      <c r="E363" s="9"/>
+      <c r="F363" s="20"/>
+      <c r="G363" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H363" s="38"/>
+      <c r="I363" s="9"/>
+      <c r="J363" s="11"/>
+      <c r="K363" s="20"/>
+    </row>
+    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A364" s="39">
+        <v>45383</v>
+      </c>
+      <c r="B364" s="20"/>
+      <c r="C364" s="13"/>
+      <c r="D364" s="38"/>
+      <c r="E364" s="9"/>
+      <c r="F364" s="20"/>
+      <c r="G364" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H364" s="38"/>
+      <c r="I364" s="9"/>
+      <c r="J364" s="11"/>
+      <c r="K364" s="20"/>
+    </row>
+    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A365" s="39">
+        <v>45413</v>
+      </c>
+      <c r="B365" s="20"/>
+      <c r="C365" s="13"/>
+      <c r="D365" s="38"/>
+      <c r="E365" s="9"/>
+      <c r="F365" s="20"/>
+      <c r="G365" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H365" s="38"/>
+      <c r="I365" s="9"/>
+      <c r="J365" s="11"/>
+      <c r="K365" s="20"/>
+    </row>
+    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A366" s="39">
+        <v>45444</v>
+      </c>
+      <c r="B366" s="20"/>
+      <c r="C366" s="13"/>
+      <c r="D366" s="38"/>
+      <c r="E366" s="9"/>
+      <c r="F366" s="20"/>
+      <c r="G366" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H366" s="38"/>
+      <c r="I366" s="9"/>
+      <c r="J366" s="11"/>
+      <c r="K366" s="20"/>
+    </row>
+    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A367" s="39">
+        <v>45474</v>
+      </c>
+      <c r="B367" s="20"/>
+      <c r="C367" s="13"/>
+      <c r="D367" s="38"/>
+      <c r="E367" s="9"/>
+      <c r="F367" s="20"/>
+      <c r="G367" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H367" s="38"/>
+      <c r="I367" s="9"/>
+      <c r="J367" s="11"/>
+      <c r="K367" s="20"/>
+    </row>
+    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A368" s="39">
+        <v>45505</v>
+      </c>
+      <c r="B368" s="20"/>
+      <c r="C368" s="13"/>
+      <c r="D368" s="38"/>
+      <c r="E368" s="9"/>
+      <c r="F368" s="20"/>
+      <c r="G368" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H368" s="38"/>
+      <c r="I368" s="9"/>
+      <c r="J368" s="11"/>
+      <c r="K368" s="20"/>
+    </row>
+    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A369" s="39">
+        <v>45536</v>
+      </c>
+      <c r="B369" s="20"/>
+      <c r="C369" s="13"/>
+      <c r="D369" s="38"/>
+      <c r="E369" s="9"/>
+      <c r="F369" s="20"/>
+      <c r="G369" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H369" s="38"/>
+      <c r="I369" s="9"/>
+      <c r="J369" s="11"/>
+      <c r="K369" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -11032,17 +11329,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D1" s="65" t="s">
+      <c r="D1" s="67" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="J1" s="66" t="s">
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="J1" s="68" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="66"/>
-      <c r="L1" s="66"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
@@ -11127,12 +11424,12 @@
         <v>30</v>
       </c>
       <c r="G6" s="43"/>
-      <c r="I6" s="66" t="s">
+      <c r="I6" s="68" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="66"/>
-      <c r="K6" s="66"/>
-      <c r="L6" s="66"/>
+      <c r="J6" s="68"/>
+      <c r="K6" s="68"/>
+      <c r="L6" s="68"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="36">
